--- a/data/nuc_cell_seg_delivery_20170210/3500000418.xlsx
+++ b/data/nuc_cell_seg_delivery_20170210/3500000418.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="0" windowWidth="27465" windowHeight="16155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
     <t>3500000418_100X_20170117_E05_P01.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;03;04;</t>
+    <t>2;3;4;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_E05_P01.czi_nucWholeIndexSegScale.tiff</t>
@@ -236,7 +236,7 @@
     <t>3500000418_100X_20170117_E05_P02.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;</t>
+    <t>1;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_E05_P02.czi_nucWholeIndexSegScale.tiff</t>
@@ -248,7 +248,7 @@
     <t>3500000418_100X_20170117_E05_P03.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;03;04;</t>
+    <t>1;3;4;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_E05_P03.czi_nucWholeIndexSegScale.tiff</t>
@@ -260,7 +260,7 @@
     <t>3500000418_100X_20170117_E05_P04.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;04;</t>
+    <t>2;4;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_E05_P04.czi_nucWholeIndexSegScale.tiff</t>
@@ -272,7 +272,7 @@
     <t>3500000418_100X_20170117_E05_P05.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;03;05;</t>
+    <t>1;2;3;5;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_E05_P05.czi_nucWholeIndexSegScale.tiff</t>
@@ -284,7 +284,7 @@
     <t>3500000418_100X_20170117_E05_P07.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;03;04;05;06;</t>
+    <t>1;2;3;4;5;6;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_E05_P07.czi_nucWholeIndexSegScale.tiff</t>
@@ -296,7 +296,7 @@
     <t>3500000418_100X_20170117_E06_P08.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;04;06;</t>
+    <t>2;4;6;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_E06_P08.czi_nucWholeIndexSegScale.tiff</t>
@@ -317,7 +317,7 @@
     <t>3500000418_100X_20170117_E06_P10.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;03;04;05;</t>
+    <t>1;3;4;5;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_E06_P10.czi_nucWholeIndexSegScale.tiff</t>
@@ -329,7 +329,7 @@
     <t>3500000418_100X_20170117_E06_P11.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;</t>
+    <t>1;2;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_E06_P11.czi_nucWholeIndexSegScale.tiff</t>
@@ -341,7 +341,7 @@
     <t>3500000418_100X_20170117_E06_P12.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;</t>
+    <t>2;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_E06_P12.czi_nucWholeIndexSegScale.tiff</t>
@@ -353,7 +353,7 @@
     <t>3500000418_100X_20170117_E07_P35.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>03;</t>
+    <t>3;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_E07_P35.czi_nucWholeIndexSegScale.tiff</t>
@@ -374,7 +374,7 @@
     <t>3500000418_100X_20170117_E07_P37.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;03;04;07;</t>
+    <t>1;3;4;7;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_E07_P37.czi_nucWholeIndexSegScale.tiff</t>
@@ -386,7 +386,7 @@
     <t>3500000418_100X_20170117_E07_P38.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;03;</t>
+    <t>1;2;3;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_E07_P38.czi_nucWholeIndexSegScale.tiff</t>
@@ -398,7 +398,7 @@
     <t>3500000418_100X_20170117_E07_P39.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>03;04;05;</t>
+    <t>3;4;5;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_E07_P39.czi_nucWholeIndexSegScale.tiff</t>
@@ -419,7 +419,7 @@
     <t>3500000418_100X_20170117_E07_P41.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;04;</t>
+    <t>1;2;4;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_E07_P41.czi_nucWholeIndexSegScale.tiff</t>
@@ -476,7 +476,7 @@
     <t>3500000418_100X_20170117_F05_P23.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;04;05;06;</t>
+    <t>1;4;5;6;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_F05_P23.czi_nucWholeIndexSegScale.tiff</t>
@@ -497,7 +497,7 @@
     <t>3500000418_100X_20170117_F05_P25.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;03;</t>
+    <t>2;3;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_F05_P25.czi_nucWholeIndexSegScale.tiff</t>
@@ -527,7 +527,7 @@
     <t>3500000418_100X_20170117_F06_P14.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;03;05;</t>
+    <t>1;3;5;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_F06_P14.czi_nucWholeIndexSegScale.tiff</t>
@@ -539,7 +539,7 @@
     <t>3500000418_100X_20170117_F06_P15.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;03;</t>
+    <t>1;3;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_F06_P15.czi_nucWholeIndexSegScale.tiff</t>
@@ -560,7 +560,7 @@
     <t>3500000418_100X_20170117_F06_P17.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;04;</t>
+    <t>1;4;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_F06_P17.czi_nucWholeIndexSegScale.tiff</t>
@@ -608,7 +608,7 @@
     <t>3500000418_100X_20170117_F07_P30.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>03;04;</t>
+    <t>3;4;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_F07_P30.czi_nucWholeIndexSegScale.tiff</t>
@@ -620,7 +620,7 @@
     <t>3500000418_100X_20170117_F07_P31.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;04;05;</t>
+    <t>1;2;4;5;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_F07_P31.czi_nucWholeIndexSegScale.tiff</t>
@@ -641,7 +641,7 @@
     <t>3500000418_100X_20170117_F07_P34.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;03;04;05;</t>
+    <t>1;2;3;4;5;</t>
   </si>
   <si>
     <t>3500000418_100X_20170117_F07_P34.czi_nucWholeIndexSegScale.tiff</t>
@@ -1195,7 +1195,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>6</v>
@@ -1266,7 +1266,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>6</v>
@@ -1337,7 +1337,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -1408,7 +1408,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>6</v>
@@ -1479,7 +1479,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>6</v>
@@ -1550,7 +1550,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -1621,7 +1621,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -1692,7 +1692,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>6</v>
@@ -1763,7 +1763,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -1834,7 +1834,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -1905,7 +1905,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -1976,7 +1976,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -2047,7 +2047,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -2118,7 +2118,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -2189,7 +2189,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -2260,7 +2260,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -2331,7 +2331,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -2402,7 +2402,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -2473,7 +2473,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>6</v>
@@ -2544,7 +2544,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>6</v>
@@ -2615,7 +2615,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>6</v>
@@ -2686,7 +2686,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>6</v>
@@ -2757,7 +2757,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>6</v>
@@ -2828,7 +2828,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>6</v>
@@ -2899,7 +2899,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>6</v>
@@ -2970,7 +2970,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>6</v>
@@ -3041,7 +3041,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>6</v>
@@ -3112,7 +3112,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>6</v>
@@ -3183,7 +3183,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>6</v>
@@ -3254,7 +3254,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>6</v>
@@ -3325,7 +3325,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>6</v>
@@ -3396,7 +3396,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>6</v>
@@ -3467,7 +3467,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>6</v>
@@ -3538,7 +3538,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>6</v>
@@ -3609,7 +3609,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>6</v>
@@ -3680,7 +3680,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>6</v>
@@ -3751,7 +3751,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>6</v>
@@ -3822,7 +3822,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>6</v>
@@ -3893,7 +3893,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>6</v>
@@ -3964,7 +3964,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>6</v>
